--- a/keywords.xlsx
+++ b/keywords.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BrainStromers\Product-one-page-extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B467BEDF-6414-414C-B880-2DF49D062A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3595A97-FDEC-4CCB-9F5C-F47F57A2BBDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Product names</t>
   </si>
@@ -49,16 +49,32 @@
   </si>
   <si>
     <t>serenade aso</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>format</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -84,8 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,10 +383,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -397,11 +414,22 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
       <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
